--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad\Desktop\Nard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D76147-F954-4C35-A34A-6CBD6A7AF6EF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BAB57D-DFD1-4923-B4D3-4A16DC3DE01C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8928" firstSheet="1" activeTab="4" xr2:uid="{E83BA12D-09B2-4D3E-941F-5E162DEE5142}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="408" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="334">
   <si>
     <t>Test Steps</t>
   </si>
@@ -322,13 +322,6 @@
   </si>
   <si>
     <t>Verify adding multiple quantities of the same product to the cart</t>
-  </si>
-  <si>
-    <t>Verify that the checkout page contains the Billing details
-and order review</t>
-  </si>
-  <si>
-    <t>Verify the order summary and item details on the checkout page.</t>
   </si>
   <si>
     <t>1- First name: (empty)
@@ -447,9 +440,6 @@
     <t>Search results should not display any product and "Search term minimum length is 3 characters" message should be displayed</t>
   </si>
   <si>
-    <t>Search results should not display any product and "No products were found that matched your criteria." message should be displayed</t>
-  </si>
-  <si>
     <t>The product is successfully added to the shopping cart.</t>
   </si>
   <si>
@@ -478,9 +468,6 @@
 8- Click on search button under the form and observe the changes in the result page.</t>
   </si>
   <si>
-    <t>The shopping cart page is accessible</t>
-  </si>
-  <si>
     <t>Verify that all added products have at least a quantity, price, total, image, name, sku, and remove option associated with it</t>
   </si>
   <si>
@@ -491,9 +478,6 @@
 2- Locate the product of interest on the product details page, homepage, or through search.
 3- Click on "add to cart" button.
 4- Navigate to the cart to verify the added product.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The specified quantity of the product is added to the shopping cart. </t>
   </si>
   <si>
     <t>verify that a product displayed in the search result can be easily added to the shopping cart.</t>
@@ -623,9 +607,6 @@
 3-Locate and click on the "Checkout" button without accept the terms of service</t>
   </si>
   <si>
-    <t>The attempt to navigate to the checkout page should be unsuccessful, and validation messages "Please accept the terms of service before proceeding" should be displayed.</t>
-  </si>
-  <si>
     <t>1- Open the website.
 2- Add a product to the shopping cart. 
 3- Locate and accept the Terms of Service by clicking on the check box “I agree with the terms of service and I adhere to them unconditionally."
@@ -634,9 +615,6 @@
 6- Click on Checkout as a guest button</t>
   </si>
   <si>
-    <t>One step Checkout page is accessible</t>
-  </si>
-  <si>
     <t xml:space="preserve">1- Open the website
 2- Log in with valid credentials. 
 3- Add a product to the shopping cart. 
@@ -645,9 +623,6 @@
   </si>
   <si>
     <t>Product is in the shopping cart.</t>
-  </si>
-  <si>
-    <t>The order is confirmed, and the checkout process is successfully completed.</t>
   </si>
   <si>
     <t>Verify entering a valid billing address</t>
@@ -698,9 +673,6 @@
     <t>Verify entering a valid shipping address</t>
   </si>
   <si>
-    <t>Verify prevention of continuing with blank shipping address fields</t>
-  </si>
-  <si>
     <t>Verify prevention of continuing with invalid shipping address information</t>
   </si>
   <si>
@@ -738,12 +710,6 @@
     <t>1- Proceed to checkout.
 2- Fill in all required fields with invalid information.
 3- Click on the "Continue" button.</t>
-  </si>
-  <si>
-    <t>A validation message should be displayed for invalid fields, preventing the user from continuing without entering valid shipping address information.</t>
-  </si>
-  <si>
-    <t>A validation message should be displayed for empty fields, indicating that the required information is missing and preventing the user from continuing without entering shipping address information.</t>
   </si>
   <si>
     <t>Verify Creating Ship to the Same Billing Address</t>
@@ -844,9 +810,6 @@
   </si>
   <si>
     <t>The user can proceed to the next steps of the checkout process without encountering errors related to the shipping method.</t>
-  </si>
-  <si>
-    <t>The user can proceed to the next steps of the checkout process without encountering errors related to the shipping address.</t>
   </si>
   <si>
     <t xml:space="preserve">Verify the checkout process works correctly with valid payment information (Check / Money Order)
@@ -885,13 +848,6 @@
 9- Click on the "Continue" button
 10- Fill valid credit card information
 11-  Click on the "Continue" button.</t>
-  </si>
-  <si>
-    <t>The the credit card form displayed in the payment information and user can proceed to confirm order step successfully</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify the checkout process works correctly with invalid payment information (Credit Card)
-</t>
   </si>
   <si>
     <t>1- Proceed to checkout.
@@ -996,10 +952,6 @@
 </t>
   </si>
   <si>
-    <t>1- Login failed, 
-2- Validation message for password filed does not appear</t>
-  </si>
-  <si>
     <t>Real-time suggestions are displayed. 
 The selected suggestion directs the user to the product details page</t>
   </si>
@@ -1035,9 +987,6 @@
     <t>The website can handle the expected number of simultaneous users without significant degradation in performance or errors.</t>
   </si>
   <si>
-    <t>The shopping cart total, sub total and points (if user registered) are displayed correctly and accurately calculated according to the adjusted quantity.</t>
-  </si>
-  <si>
     <t>Verify that the product price and total are correctly displayed and calcualted.</t>
   </si>
   <si>
@@ -1098,9 +1047,6 @@
     <t>TC_038</t>
   </si>
   <si>
-    <t>TC_039</t>
-  </si>
-  <si>
     <t>TC_040</t>
   </si>
   <si>
@@ -1125,15 +1071,6 @@
     <t>TC_047</t>
   </si>
   <si>
-    <t>TC_048</t>
-  </si>
-  <si>
-    <t>TC_049</t>
-  </si>
-  <si>
-    <t>TC_050</t>
-  </si>
-  <si>
     <t>TC_051</t>
   </si>
   <si>
@@ -1171,6 +1108,222 @@
   </si>
   <si>
     <t>TS_006</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Partially</t>
+  </si>
+  <si>
+    <t>Registration fail, and validation messages successfully displayed for invalid information</t>
+  </si>
+  <si>
+    <t>The register page is successfully accessible.</t>
+  </si>
+  <si>
+    <t>The login page is successfully accessible.</t>
+  </si>
+  <si>
+    <t>The user should logged in successfully. The user should be redirected to the home page.</t>
+  </si>
+  <si>
+    <t>The user should logged out successfully. The user should be redirected to the home page.</t>
+  </si>
+  <si>
+    <t>1- Login failed, 
+2- The validation message for the password field does not appear</t>
+  </si>
+  <si>
+    <t>The website opens and loads successfully, displaying the home page.
+The register page is successfully accessible.</t>
+  </si>
+  <si>
+    <t>Registration fails, and validation messages are displayed for empty fields, indicating the required information is missing.</t>
+  </si>
+  <si>
+    <t>Registration and a validation message indicating that "The specified email already exists" were displayed successfully</t>
+  </si>
+  <si>
+    <t>The search bar is displayed successfully</t>
+  </si>
+  <si>
+    <t>Relevant products are displayed on the search result page successfully</t>
+  </si>
+  <si>
+    <t>Real-time suggestions should be displayed. 
+The selected suggestion should direct the user to the product details page</t>
+  </si>
+  <si>
+    <t>Pagination links should be present, and clicking them will display additional pages of search results.</t>
+  </si>
+  <si>
+    <t>Relevant products, and product images, names, prices, rates, and actions buttons are displayed successfully.</t>
+  </si>
+  <si>
+    <t>Relevant products are displayed according to the applied filter criteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Combined results accurately reflect the search query and applied filters. </t>
+  </si>
+  <si>
+    <t>Search results should not display any product and the "No products were found that matched your criteria." message should be displayed</t>
+  </si>
+  <si>
+    <t>Search results do not display any product and the "No products were found that matched your criteria." message is displayed</t>
+  </si>
+  <si>
+    <t>The search is not initiated and the validation message "Please enter some search keyword" is displayed successfully</t>
+  </si>
+  <si>
+    <t>Search results do not display any product and "Search term minimum length is 3 characters" message displayed</t>
+  </si>
+  <si>
+    <t>The product should be added to the shopping cart.</t>
+  </si>
+  <si>
+    <t>The shopping cart page should be accessible</t>
+  </si>
+  <si>
+    <t>The shopping cart  is successfully accessible.</t>
+  </si>
+  <si>
+    <t>The product should be added to the shopping cart and the added product should be displayed in the shopping cart with accurate details.</t>
+  </si>
+  <si>
+    <t>The SKU, image, and title should be correct for each added product, the quantity field should contain a numerical value price, the total information should be visible and accurate, and the "Remove" option should be available.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The specified quantity of the product should be added to the shopping cart. </t>
+  </si>
+  <si>
+    <t>The specified quantity of the product is added to the shopping cart successfully.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The quantity of the selected product should be increased as specified and the shopping cart should display the updated quantity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The quantity of the selected product should be decreased as specified and the shopping cart should display the updated quantity </t>
+  </si>
+  <si>
+    <t>The product should be removed from the shopping cart.</t>
+  </si>
+  <si>
+    <t>The products should be added to the shopping cart and the added products should be displayed in the shopping cart with accurate details.</t>
+  </si>
+  <si>
+    <t>The price and total price should be displayed correctly and the total price should be accurately calculated according to the adjusted quantity.</t>
+  </si>
+  <si>
+    <t>The shopping cart total, sub-total, and points (if the user registered) should be displayed correctly and accurately calculated according to the adjusted quantity.</t>
+  </si>
+  <si>
+    <t>The shopping cart total, sub-total, and points (if the user registers) are displayed correctly and accurately calculated according to the adjusted quantity.</t>
+  </si>
+  <si>
+    <t>The shopping cart page should be accessible, and the previously added product should be still in the cart.</t>
+  </si>
+  <si>
+    <t>One step Checkout page is successfully accessible.</t>
+  </si>
+  <si>
+    <t>One step Checkout page should be accessible</t>
+  </si>
+  <si>
+    <t>The attempt to navigate to the checkout page should be unsuccessful, and the validation message "Please accept the terms of service before proceeding" should be displayed.</t>
+  </si>
+  <si>
+    <t>The attempt to navigate to the checkout page failed, and the validation message "Please accept the terms of service before proceeding" displayed successfully.</t>
+  </si>
+  <si>
+    <t>The user should proceed to the next steps of the checkout process without encountering errors related to the billing address.</t>
+  </si>
+  <si>
+    <t>A validation message is displayed for empty fields, indicating that the required information is missing and preventing the user from proceeding to the billing address information step.</t>
+  </si>
+  <si>
+    <t>The billing address should be removed successfully</t>
+  </si>
+  <si>
+    <t>The billing address information should be updated without errors.</t>
+  </si>
+  <si>
+    <t>Verify the system prevents users from proceeding with blank shipping address fields</t>
+  </si>
+  <si>
+    <t>The user should be proceed to the next steps of the checkout process without encountering errors related to the billing address.</t>
+  </si>
+  <si>
+    <t>Validation messages should be displayed for empty fields, indicating that the required information is missing and preventing the user from continuing without entering shipping address information.</t>
+  </si>
+  <si>
+    <t>Validation messages should be displayed for invalid fields, preventing the user from continuing without entering valid shipping address information.</t>
+  </si>
+  <si>
+    <t>Validation messages are displayed for invalid fields, preventing the user from continuing without entering valid shipping address information.</t>
+  </si>
+  <si>
+    <t>1- Validation messages are displayed for invalid fields, preventing the user from continuing without entering valid shipping address information.
+2- There is no validation on the phone number field.</t>
+  </si>
+  <si>
+    <t>1- A validation message is displayed for invalid email field and the user cannot proceed to next step without entering valid billing address information.
+2- There is no validation on the phone number field.</t>
+  </si>
+  <si>
+    <t>The system should create a shipping address that matches the entered billing address.</t>
+  </si>
+  <si>
+    <t>The shipping address information should be updated without errors.</t>
+  </si>
+  <si>
+    <t>The shipping address should be removed successfully.</t>
+  </si>
+  <si>
+    <t>The user should be proceed to the payment information steps of the checkout process successfully, and payment information should be displayed.</t>
+  </si>
+  <si>
+    <t>The credit card form should be displayed in the payment information, and the user should proceed to confirm the order step successfully.</t>
+  </si>
+  <si>
+    <t>The credit card form is displayed in the payment information, and the user can proceed to confirm the order step successfully.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify the checkout process fails with invalid payment information. (Credit Card)
+</t>
+  </si>
+  <si>
+    <t>The user should proceed to the next steps of the checkout process without encountering errors related to the shipping method.</t>
+  </si>
+  <si>
+    <t>Validation messages should be displayed for invalid fields, preventing the user from continuing without entering valid payment information.</t>
+  </si>
+  <si>
+    <t>Validation messages are displayed for invalid fields, and preventing the user from continuing without entering valid payment information.</t>
+  </si>
+  <si>
+    <t>The order should be confirmed, and the checkout process should be successfully completed.</t>
+  </si>
+  <si>
+    <t>The order details are confirmed successfully, and the checkout process is successfully completed.</t>
+  </si>
+  <si>
+    <t>The website should load correctly, and all features should be accessible and functional on each specified browser and device</t>
+  </si>
+  <si>
+    <t>The website loads within the acceptable time frame with some slowness noted that should be measured with the performance tool to be more specific and clear</t>
+  </si>
+  <si>
+    <t>Should be tested by using performance tools like Jmeter</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
@@ -1311,7 +1464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1336,6 +1489,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1363,6 +1519,18 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1678,10 +1846,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4746B74-F1C0-4707-9D5E-61D0FD7AA7F9}">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1695,10 +1863,11 @@
     <col min="7" max="7" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="24.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="21.44140625" style="1"/>
+    <col min="10" max="10" width="14" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="21.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="6" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
@@ -1726,8 +1895,11 @@
       <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>70</v>
       </c>
@@ -1750,15 +1922,29 @@
         <v>14</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -1771,19 +1957,24 @@
         <v>56</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>51</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
+        <v>95</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>269</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
@@ -1791,10 +1982,10 @@
         <v>7</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>51</v>
@@ -1802,11 +1993,17 @@
       <c r="H4" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
+      <c r="I4" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="8" t="s">
         <v>20</v>
       </c>
@@ -1814,10 +2011,10 @@
         <v>53</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>51</v>
@@ -1825,11 +2022,16 @@
       <c r="H5" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
+      <c r="I5" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="8" t="s">
         <v>21</v>
       </c>
@@ -1837,10 +2039,10 @@
         <v>17</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>51</v>
@@ -1848,11 +2050,16 @@
       <c r="H6" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+      <c r="I6" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="8" t="s">
         <v>22</v>
       </c>
@@ -1860,22 +2067,27 @@
         <v>68</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>51</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
+        <v>207</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="8" t="s">
         <v>23</v>
       </c>
@@ -1892,11 +2104,16 @@
       <c r="H8" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
+      <c r="I8" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="8" t="s">
         <v>24</v>
       </c>
@@ -1904,22 +2121,27 @@
         <v>52</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>58</v>
       </c>
       <c r="H9" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
+      <c r="J9" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="8" t="s">
         <v>25</v>
       </c>
@@ -1927,10 +2149,10 @@
         <v>54</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>51</v>
@@ -1939,12 +2161,15 @@
         <v>65</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
+        <v>273</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="8" t="s">
         <v>26</v>
       </c>
@@ -1952,10 +2177,10 @@
         <v>60</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>59</v>
@@ -1964,12 +2189,15 @@
         <v>66</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
+        <v>273</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="8" t="s">
         <v>27</v>
       </c>
@@ -1986,9 +2214,14 @@
         <v>59</v>
       </c>
       <c r="H12" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="I12" s="8"/>
+      <c r="J12" s="9" t="s">
+        <v>265</v>
+      </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D33" s="4"/>
@@ -2010,6 +2243,11 @@
     <mergeCell ref="A3:A12"/>
     <mergeCell ref="B3:B12"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J12" xr:uid="{F1CEE858-23E3-4AEE-A61B-5B376277A361}">
+      <formula1>$L$2:$N$2</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2017,10 +2255,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D3723A-EC32-4569-8713-30275916F05E}">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2029,15 +2267,16 @@
     <col min="2" max="2" width="21.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="45" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="23.77734375" style="1"/>
+    <col min="9" max="9" width="25.77734375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="23.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
@@ -2065,22 +2304,25 @@
       <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="J1" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="12" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>28</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8" t="s">
@@ -2089,11 +2331,25 @@
       <c r="H2" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
+      <c r="I2" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
       <c r="C3" s="8" t="s">
         <v>29</v>
       </c>
@@ -2101,7 +2357,7 @@
         <v>35</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>75</v>
@@ -2110,21 +2366,26 @@
         <v>10</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
+        <v>113</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
       <c r="C4" s="8" t="s">
         <v>30</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>75</v>
@@ -2133,13 +2394,18 @@
         <v>10</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
+        <v>279</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
       <c r="C5" s="8" t="s">
         <v>31</v>
       </c>
@@ -2147,7 +2413,7 @@
         <v>87</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>75</v>
@@ -2156,21 +2422,26 @@
         <v>10</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
+        <v>113</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
       <c r="C6" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>75</v>
@@ -2179,18 +2450,23 @@
         <v>10</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+        <v>280</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
       <c r="C7" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>85</v>
@@ -2202,13 +2478,18 @@
         <v>10</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
+        <v>108</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
       <c r="C8" s="8" t="s">
         <v>34</v>
       </c>
@@ -2216,10 +2497,10 @@
         <v>36</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>10</v>
@@ -2227,19 +2508,24 @@
       <c r="H8" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
+      <c r="I8" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="144" x14ac:dyDescent="0.3">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
       <c r="C9" s="8" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>37</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>77</v>
@@ -2250,13 +2536,18 @@
       <c r="H9" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
+      <c r="I9" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
       <c r="C10" s="8" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>81</v>
@@ -2271,15 +2562,20 @@
         <v>10</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
+        <v>284</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="72" x14ac:dyDescent="0.3">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
       <c r="C11" s="8" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>83</v>
@@ -2292,44 +2588,54 @@
         <v>10</v>
       </c>
       <c r="H11" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E12" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
-      <c r="C12" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="D12" s="8" t="s">
+      <c r="F12" s="8" t="s">
         <v>117</v>
-      </c>
-      <c r="E12" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>119</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>10</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="13"/>
-      <c r="B13" s="13"/>
+        <v>118</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="8" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>75</v>
@@ -2338,15 +2644,25 @@
         <v>10</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="I13" s="8"/>
+        <v>288</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>265</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A2:A13"/>
     <mergeCell ref="B2:B13"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J13" xr:uid="{D7C4898B-6247-4EC0-A9AF-4CA547C7D5BD}">
+      <formula1>$L$2:$N$2</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -2354,10 +2670,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7C94AF-F4C9-40DE-B7D0-C7B8EB5966EE}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:B35"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2366,15 +2682,16 @@
     <col min="2" max="2" width="15.44140625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.109375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36" style="1" customWidth="1"/>
     <col min="6" max="6" width="23.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="27.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="19.88671875" style="1"/>
+    <col min="9" max="9" width="29.21875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="19.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
@@ -2402,784 +2719,861 @@
       <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="11" t="s">
+      <c r="J1" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8" t="s">
         <v>51</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
+        <v>289</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
       <c r="C3" s="8" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
+        <v>291</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A4" s="21"/>
+      <c r="B4" s="21"/>
       <c r="C4" s="8" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
+        <v>292</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
       <c r="C5" s="8" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>91</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="12"/>
+        <v>293</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>294</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
       <c r="C6" s="8" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>89</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="12"/>
+        <v>295</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="21"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="8" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>90</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>10</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="12"/>
+        <v>296</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="8" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>88</v>
       </c>
       <c r="E8" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>141</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>146</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>10</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="I8" s="8"/>
-    </row>
-    <row r="9" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="12"/>
+        <v>297</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="21"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="8" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>38</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>10</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="I9" s="8"/>
-    </row>
-    <row r="10" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="12"/>
+        <v>298</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="21"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="8" t="s">
-        <v>253</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>223</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>10</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="12"/>
+        <v>299</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="144" x14ac:dyDescent="0.3">
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="8" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="I11" s="8"/>
-    </row>
-    <row r="12" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="12"/>
+      <c r="H11" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="21"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="8" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>10</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="I12" s="8"/>
-    </row>
-    <row r="13" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="12"/>
+        <v>302</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="144" x14ac:dyDescent="0.3">
+      <c r="A13" s="21"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="8" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="F13" s="8"/>
       <c r="G13" s="8" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="I13" s="8"/>
-    </row>
-    <row r="14" spans="1:9" ht="144" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="12"/>
+        <v>304</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="8" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="E14" s="8" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F14" s="8"/>
       <c r="G14" s="8" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="I14" s="8"/>
-    </row>
-    <row r="15" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="12"/>
+        <v>304</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="21"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="8" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F15" s="8"/>
       <c r="G15" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>306</v>
+      </c>
+      <c r="J15" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="21"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>307</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="21"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G17" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F18" s="8" t="s">
         <v>161</v>
       </c>
-      <c r="H15" s="8" t="s">
+      <c r="G18" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>317</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="21"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="21"/>
+      <c r="B20" s="21"/>
+      <c r="C20" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="21"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G21" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>312</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="21"/>
+      <c r="B22" s="21"/>
+      <c r="C22" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>311</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="F22" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-    </row>
-    <row r="17" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="D17" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="E17" s="8" t="s">
+      <c r="G22" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="21"/>
+      <c r="B23" s="21"/>
+      <c r="C23" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>316</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="144" x14ac:dyDescent="0.3">
+      <c r="A24" s="21"/>
+      <c r="B24" s="21"/>
+      <c r="C24" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="E24" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="F17" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="H17" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="I17" s="8"/>
-    </row>
-    <row r="18" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="D18" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E18" s="8" t="s">
+      <c r="F24" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="F18" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="I18" s="8"/>
-    </row>
-    <row r="19" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="E19" s="8" t="s">
+      <c r="H24" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="I24" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A25" s="21"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H25" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="I25" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="21"/>
+      <c r="B26" s="21"/>
+      <c r="C26" s="8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D26" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="G19" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="H19" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="8" t="s">
-        <v>263</v>
-      </c>
-      <c r="D20" s="8" t="s">
+      <c r="E26" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="G26" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H26" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="I26" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="J26" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A27" s="21"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="8" t="s">
+        <v>254</v>
+      </c>
+      <c r="D27" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="I27" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="E20" s="8" t="s">
+      <c r="J27" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="21"/>
+      <c r="B28" s="21"/>
+      <c r="C28" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="I28" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="F20" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="H20" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="I20" s="8"/>
-    </row>
-    <row r="21" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="E21" s="8" t="s">
+      <c r="J28" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E29" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="F21" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="G21" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="H21" s="8" t="s">
+      <c r="F29" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>195</v>
       </c>
-      <c r="I21" s="8"/>
-    </row>
-    <row r="22" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="I22" s="8"/>
-    </row>
-    <row r="23" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="D23" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>179</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="I23" s="8"/>
-    </row>
-    <row r="24" spans="1:9" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="8" t="s">
-        <v>267</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="E24" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="F24" s="8" t="s">
-        <v>169</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="I24" s="8"/>
-    </row>
-    <row r="25" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="8" t="s">
-        <v>268</v>
-      </c>
-      <c r="D25" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="E25" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="F25" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="G25" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="H25" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="I25" s="8"/>
-    </row>
-    <row r="26" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="D26" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="F26" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="H26" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="I26" s="8"/>
-    </row>
-    <row r="27" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="D27" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="G27" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="H27" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="I27" s="8"/>
-    </row>
-    <row r="28" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="E28" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="F28" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="H28" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="I28" s="8"/>
-    </row>
-    <row r="29" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E29" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="F29" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="G29" s="8" t="s">
-        <v>188</v>
-      </c>
       <c r="H29" s="8" t="s">
-        <v>189</v>
-      </c>
-      <c r="I29" s="8"/>
-    </row>
-    <row r="30" spans="1:9" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
+        <v>322</v>
+      </c>
+      <c r="I29" s="8" t="s">
+        <v>323</v>
+      </c>
+      <c r="J29" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="8" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>191</v>
+        <v>324</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="I30" s="8"/>
-    </row>
-    <row r="31" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
-      <c r="B31" s="12"/>
+        <v>326</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>327</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="22"/>
+      <c r="B31" s="22"/>
       <c r="C31" s="8" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>199</v>
+        <v>39</v>
       </c>
       <c r="E31" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>202</v>
+        <v>154</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="I31" s="8"/>
-    </row>
-    <row r="32" spans="1:9" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>206</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="H32" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="I32" s="8"/>
-    </row>
-    <row r="33" spans="1:9" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>231</v>
-      </c>
-      <c r="E33" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="G33" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="H33" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="I33" s="8"/>
-    </row>
-    <row r="34" spans="1:9" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
-      <c r="C34" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E34" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="I34" s="8"/>
-    </row>
-    <row r="35" spans="1:9" ht="230.4" x14ac:dyDescent="0.3">
-      <c r="A35" s="13"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="I35" s="8"/>
+        <v>328</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>329</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>265</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B2:B35"/>
-    <mergeCell ref="A2:A35"/>
-  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J31" xr:uid="{1EF3D528-428F-4944-9F9B-2506C60B242A}">
+      <formula1>$L$2:$N$2</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3187,10 +3581,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F7C2F4-B4A9-486E-9004-D512695D8225}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="A2:I2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3202,11 +3596,11 @@
     <col min="5" max="5" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="25" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23" style="1" customWidth="1"/>
     <col min="10" max="16384" width="11.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
@@ -3234,22 +3628,25 @@
       <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>282</v>
+      <c r="J1" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
+        <v>262</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>40</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>232</v>
+        <v>217</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>13</v>
@@ -3258,11 +3655,30 @@
         <v>51</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="I2" s="8"/>
+        <v>330</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>267</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3" xr:uid="{D95EACA0-773A-4352-BFA6-E2721A8DA243}">
+      <formula1>$L$2:$N$2</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -3270,10 +3686,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77AB3C25-3D10-4441-903D-5DED02580DDA}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3286,11 +3702,11 @@
     <col min="6" max="6" width="23.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="23.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28.77734375" style="1" customWidth="1"/>
     <col min="10" max="16384" width="26.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
@@ -3318,43 +3734,64 @@
       <c r="I1" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>283</v>
-      </c>
-      <c r="B2" s="9" t="s">
+      <c r="J1" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>41</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8" t="s">
         <v>51</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="I2" s="8"/>
-    </row>
-    <row r="3" spans="1:9" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="10"/>
+        <v>220</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="J2" s="9"/>
+      <c r="K2" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="L2" s="19" t="s">
+        <v>265</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>266</v>
+      </c>
+      <c r="N2" s="19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="18"/>
+      <c r="B3" s="11"/>
       <c r="C3" s="8" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>236</v>
+        <v>221</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>16</v>
@@ -3363,15 +3800,24 @@
         <v>51</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="I3" s="8"/>
+        <v>222</v>
+      </c>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="8" t="s">
+        <v>332</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3" xr:uid="{F45C6FB5-5CCD-4420-9099-531DCD7F4861}">
+      <formula1>$L$2:$N$2</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad\Desktop\Nard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47BAB57D-DFD1-4923-B4D3-4A16DC3DE01C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FA1401-1284-477C-BE17-62C21F550A0C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8928" firstSheet="1" activeTab="4" xr2:uid="{E83BA12D-09B2-4D3E-941F-5E162DEE5142}"/>
   </bookViews>
@@ -1089,21 +1089,6 @@
     <t>TC_056</t>
   </si>
   <si>
-    <t>TC_057</t>
-  </si>
-  <si>
-    <t>TC_058</t>
-  </si>
-  <si>
-    <t>TC_059</t>
-  </si>
-  <si>
-    <t>TC_060</t>
-  </si>
-  <si>
-    <t>TC_061</t>
-  </si>
-  <si>
     <t>TS_005</t>
   </si>
   <si>
@@ -1324,6 +1309,21 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>TC_035</t>
+  </si>
+  <si>
+    <t>TC_039</t>
+  </si>
+  <si>
+    <t>TC_048</t>
+  </si>
+  <si>
+    <t>TC_049</t>
+  </si>
+  <si>
+    <t>TC_050</t>
   </si>
 </sst>
 </file>
@@ -1493,32 +1493,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1531,6 +1510,27 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1848,8 +1848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4746B74-F1C0-4707-9D5E-61D0FD7AA7F9}">
   <dimension ref="A1:N60"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1896,7 +1896,7 @@
         <v>4</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
@@ -1925,26 +1925,26 @@
         <v>96</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>267</v>
+        <v>260</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="16" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="8" t="s">
@@ -1966,15 +1966,15 @@
         <v>95</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="8" t="s">
         <v>19</v>
       </c>
@@ -1994,16 +1994,16 @@
         <v>69</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="8" t="s">
         <v>20</v>
       </c>
@@ -2023,15 +2023,15 @@
         <v>69</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="8" t="s">
         <v>21</v>
       </c>
@@ -2051,15 +2051,15 @@
         <v>82</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="8" t="s">
         <v>22</v>
       </c>
@@ -2079,15 +2079,15 @@
         <v>207</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="8" t="s">
         <v>23</v>
       </c>
@@ -2105,15 +2105,15 @@
         <v>63</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="8" t="s">
         <v>24</v>
       </c>
@@ -2130,18 +2130,18 @@
         <v>58</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>64</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="8" t="s">
         <v>25</v>
       </c>
@@ -2161,15 +2161,15 @@
         <v>65</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="8" t="s">
         <v>26</v>
       </c>
@@ -2189,15 +2189,15 @@
         <v>66</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="18"/>
       <c r="C12" s="8" t="s">
         <v>27</v>
       </c>
@@ -2214,13 +2214,13 @@
         <v>59</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>67</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.3">
@@ -2257,8 +2257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18D3723A-EC32-4569-8713-30275916F05E}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2305,14 +2305,14 @@
         <v>4</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="16" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -2332,24 +2332,24 @@
         <v>80</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>267</v>
+        <v>260</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="17"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="8" t="s">
         <v>29</v>
       </c>
@@ -2369,15 +2369,15 @@
         <v>113</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="13"/>
-      <c r="B4" s="13"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="8" t="s">
         <v>30</v>
       </c>
@@ -2394,18 +2394,18 @@
         <v>10</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>215</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="13"/>
-      <c r="B5" s="13"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="17"/>
       <c r="C5" s="8" t="s">
         <v>31</v>
       </c>
@@ -2425,15 +2425,15 @@
         <v>113</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
+      <c r="A6" s="17"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="8" t="s">
         <v>32</v>
       </c>
@@ -2450,18 +2450,18 @@
         <v>10</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>107</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A7" s="13"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="17"/>
+      <c r="B7" s="17"/>
       <c r="C7" s="8" t="s">
         <v>33</v>
       </c>
@@ -2481,15 +2481,15 @@
         <v>108</v>
       </c>
       <c r="I7" s="8" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="13"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="17"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="8" t="s">
         <v>34</v>
       </c>
@@ -2509,15 +2509,15 @@
         <v>76</v>
       </c>
       <c r="I8" s="8" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="144" x14ac:dyDescent="0.3">
-      <c r="A9" s="13"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="17"/>
+      <c r="B9" s="17"/>
       <c r="C9" s="8" t="s">
         <v>224</v>
       </c>
@@ -2537,15 +2537,15 @@
         <v>78</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A10" s="13"/>
-      <c r="B10" s="13"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="8" t="s">
         <v>225</v>
       </c>
@@ -2562,18 +2562,18 @@
         <v>10</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="72" x14ac:dyDescent="0.3">
-      <c r="A11" s="13"/>
-      <c r="B11" s="13"/>
+      <c r="A11" s="17"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="8" t="s">
         <v>226</v>
       </c>
@@ -2591,15 +2591,15 @@
         <v>114</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A12" s="13"/>
-      <c r="B12" s="13"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="8" t="s">
         <v>227</v>
       </c>
@@ -2619,15 +2619,15 @@
         <v>118</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="18"/>
       <c r="C13" s="8" t="s">
         <v>228</v>
       </c>
@@ -2644,13 +2644,13 @@
         <v>10</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="I13" s="8" t="s">
         <v>119</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -2672,8 +2672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D7C94AF-F4C9-40DE-B7D0-C7B8EB5966EE}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:O3"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2720,14 +2720,14 @@
         <v>4</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -2744,27 +2744,27 @@
         <v>51</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>267</v>
+        <v>260</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
       <c r="C3" s="8" t="s">
         <v>230</v>
       </c>
@@ -2781,18 +2781,18 @@
         <v>10</v>
       </c>
       <c r="H3" s="8" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="I3" s="8" t="s">
         <v>139</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A4" s="21"/>
-      <c r="B4" s="21"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
       <c r="C4" s="8" t="s">
         <v>231</v>
       </c>
@@ -2809,18 +2809,18 @@
         <v>10</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="I4" s="8" t="s">
         <v>124</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
       <c r="C5" s="8" t="s">
         <v>232</v>
       </c>
@@ -2837,18 +2837,18 @@
         <v>10</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="8" t="s">
         <v>233</v>
       </c>
@@ -2865,18 +2865,18 @@
         <v>10</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="I6" s="8" t="s">
         <v>132</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="8" t="s">
         <v>234</v>
       </c>
@@ -2893,18 +2893,18 @@
         <v>10</v>
       </c>
       <c r="H7" s="8" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="I7" s="8" t="s">
         <v>133</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
       <c r="C8" s="8" t="s">
         <v>235</v>
       </c>
@@ -2921,18 +2921,18 @@
         <v>10</v>
       </c>
       <c r="H8" s="8" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>137</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A9" s="21"/>
-      <c r="B9" s="21"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
       <c r="C9" s="8" t="s">
         <v>236</v>
       </c>
@@ -2949,22 +2949,22 @@
         <v>10</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>140</v>
       </c>
       <c r="J9" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="21"/>
-      <c r="B10" s="21"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
       <c r="C10" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="10" t="s">
         <v>223</v>
       </c>
       <c r="E10" s="8" t="s">
@@ -2977,18 +2977,18 @@
         <v>10</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>144</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="144" x14ac:dyDescent="0.3">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
       <c r="C11" s="8" t="s">
         <v>238</v>
       </c>
@@ -3005,18 +3005,18 @@
         <v>10</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="J11" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
       <c r="C12" s="8" t="s">
         <v>239</v>
       </c>
@@ -3033,20 +3033,20 @@
         <v>10</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="I12" s="8" t="s">
         <v>149</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="144" x14ac:dyDescent="0.3">
-      <c r="A13" s="21"/>
-      <c r="B13" s="21"/>
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
       <c r="C13" s="8" t="s">
-        <v>240</v>
+        <v>329</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>204</v>
@@ -3059,20 +3059,20 @@
         <v>154</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="I13" s="8" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A14" s="21"/>
-      <c r="B14" s="21"/>
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
       <c r="C14" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>205</v>
@@ -3085,20 +3085,20 @@
         <v>154</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="I14" s="8" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="21"/>
-      <c r="B15" s="21"/>
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
       <c r="C15" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>206</v>
@@ -3111,20 +3111,20 @@
         <v>154</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A16" s="21"/>
-      <c r="B16" s="21"/>
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
       <c r="C16" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>155</v>
@@ -3139,20 +3139,20 @@
         <v>154</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="I16" s="8" t="s">
         <v>163</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A17" s="21"/>
-      <c r="B17" s="21"/>
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
       <c r="C17" s="8" t="s">
-        <v>244</v>
+        <v>330</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>156</v>
@@ -3170,17 +3170,17 @@
         <v>160</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="21"/>
-      <c r="B18" s="21"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
       <c r="C18" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D18" s="8" t="s">
         <v>158</v>
@@ -3198,17 +3198,17 @@
         <v>159</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="J18" s="9" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="21"/>
-      <c r="B19" s="21"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="14"/>
       <c r="C19" s="8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D19" s="8" t="s">
         <v>181</v>
@@ -3223,20 +3223,20 @@
         <v>154</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>183</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
       <c r="C20" s="8" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D20" s="8" t="s">
         <v>182</v>
@@ -3251,20 +3251,20 @@
         <v>154</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>184</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
+      <c r="A21" s="14"/>
+      <c r="B21" s="14"/>
       <c r="C21" s="8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D21" s="8" t="s">
         <v>164</v>
@@ -3279,23 +3279,23 @@
         <v>177</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="I21" s="8" t="s">
         <v>163</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
       <c r="C22" s="8" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E22" s="8" t="s">
         <v>170</v>
@@ -3307,20 +3307,20 @@
         <v>177</v>
       </c>
       <c r="H22" s="8" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="I22" s="8" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="J22" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="21"/>
-      <c r="B23" s="21"/>
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
       <c r="C23" s="8" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>165</v>
@@ -3335,20 +3335,20 @@
         <v>177</v>
       </c>
       <c r="H23" s="8" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="I23" s="8" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="144" x14ac:dyDescent="0.3">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
+      <c r="A24" s="14"/>
+      <c r="B24" s="14"/>
       <c r="C24" s="8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D24" s="8" t="s">
         <v>172</v>
@@ -3363,20 +3363,20 @@
         <v>177</v>
       </c>
       <c r="H24" s="8" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="I24" s="8" t="s">
         <v>173</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A25" s="21"/>
-      <c r="B25" s="21"/>
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
       <c r="C25" s="8" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>174</v>
@@ -3391,20 +3391,20 @@
         <v>177</v>
       </c>
       <c r="H25" s="8" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="I25" s="8" t="s">
         <v>178</v>
       </c>
       <c r="J25" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A26" s="21"/>
-      <c r="B26" s="21"/>
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
       <c r="C26" s="8" t="s">
-        <v>253</v>
+        <v>331</v>
       </c>
       <c r="D26" s="8" t="s">
         <v>180</v>
@@ -3419,20 +3419,20 @@
         <v>177</v>
       </c>
       <c r="H26" s="8" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="I26" s="8" t="s">
         <v>185</v>
       </c>
       <c r="J26" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
-      <c r="A27" s="21"/>
-      <c r="B27" s="21"/>
+      <c r="A27" s="14"/>
+      <c r="B27" s="14"/>
       <c r="C27" s="8" t="s">
-        <v>254</v>
+        <v>332</v>
       </c>
       <c r="D27" s="8" t="s">
         <v>188</v>
@@ -3447,20 +3447,20 @@
         <v>191</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="I27" s="8" t="s">
         <v>192</v>
       </c>
       <c r="J27" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
+      <c r="A28" s="14"/>
+      <c r="B28" s="14"/>
       <c r="C28" s="8" t="s">
-        <v>255</v>
+        <v>333</v>
       </c>
       <c r="D28" s="8" t="s">
         <v>193</v>
@@ -3475,20 +3475,20 @@
         <v>195</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="I28" s="8" t="s">
         <v>197</v>
       </c>
       <c r="J28" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
       <c r="C29" s="8" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D29" s="8" t="s">
         <v>216</v>
@@ -3503,23 +3503,23 @@
         <v>195</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="J29" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
+      <c r="A30" s="14"/>
+      <c r="B30" s="14"/>
       <c r="C30" s="8" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="E30" s="8" t="s">
         <v>199</v>
@@ -3531,20 +3531,20 @@
         <v>195</v>
       </c>
       <c r="H30" s="8" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="I30" s="8" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="22"/>
-      <c r="B31" s="22"/>
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
       <c r="C31" s="8" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D31" s="8" t="s">
         <v>39</v>
@@ -3559,13 +3559,13 @@
         <v>154</v>
       </c>
       <c r="H31" s="8" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="I31" s="8" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="J31" s="9" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -3583,8 +3583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54F7C2F4-B4A9-486E-9004-D512695D8225}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:O2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3629,18 +3629,18 @@
         <v>4</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="158.4" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>262</v>
+      <c r="A2" s="11" t="s">
+        <v>257</v>
       </c>
       <c r="B2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>40</v>
@@ -3655,22 +3655,22 @@
         <v>51</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>218</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>267</v>
+        <v>260</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -3688,8 +3688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77AB3C25-3D10-4441-903D-5DED02580DDA}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3735,21 +3735,21 @@
         <v>4</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="17" t="s">
-        <v>263</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="21" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>41</v>
@@ -3765,27 +3765,27 @@
         <v>220</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="J2" s="9"/>
       <c r="K2" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="L2" s="19" t="s">
-        <v>265</v>
-      </c>
-      <c r="M2" s="19" t="s">
-        <v>266</v>
-      </c>
-      <c r="N2" s="19" t="s">
-        <v>267</v>
+        <v>327</v>
+      </c>
+      <c r="L2" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="M2" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="N2" s="12" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="18"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="8" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>42</v>
@@ -3805,7 +3805,7 @@
       <c r="I3" s="9"/>
       <c r="J3" s="9"/>
       <c r="K3" s="8" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/Test Cases.xlsx
+++ b/Test Cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad\Desktop\Nard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75FA1401-1284-477C-BE17-62C21F550A0C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9379B8B-E5E3-4FC9-B314-580E4DD5A83C}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8928" firstSheet="1" activeTab="4" xr2:uid="{E83BA12D-09B2-4D3E-941F-5E162DEE5142}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="336">
   <si>
     <t>Test Steps</t>
   </si>
@@ -1324,6 +1324,12 @@
   </si>
   <si>
     <t>TC_050</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Not tested</t>
   </si>
 </sst>
 </file>
@@ -3686,10 +3692,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77AB3C25-3D10-4441-903D-5DED02580DDA}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="26.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3706,7 +3712,7 @@
     <col min="10" max="16384" width="26.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>44</v>
       </c>
@@ -3741,7 +3747,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
         <v>258</v>
       </c>
@@ -3767,7 +3773,9 @@
       <c r="I2" s="8" t="s">
         <v>326</v>
       </c>
-      <c r="J2" s="9"/>
+      <c r="J2" s="9" t="s">
+        <v>262</v>
+      </c>
       <c r="K2" s="8" t="s">
         <v>327</v>
       </c>
@@ -3780,8 +3788,11 @@
       <c r="N2" s="12" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="O2" s="12" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
       <c r="B3" s="20"/>
       <c r="C3" s="8" t="s">
@@ -3803,7 +3814,9 @@
         <v>222</v>
       </c>
       <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
+      <c r="J3" s="9" t="s">
+        <v>334</v>
+      </c>
       <c r="K3" s="8" t="s">
         <v>327</v>
       </c>
@@ -3814,8 +3827,8 @@
     <mergeCell ref="A2:A3"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3" xr:uid="{F45C6FB5-5CCD-4420-9099-531DCD7F4861}">
-      <formula1>$L$2:$N$2</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J3" xr:uid="{5677F3D8-6A14-4B04-BB1D-B8AEB06AF2F0}">
+      <formula1>$L$2:$O$2</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
